--- a/output/XY_pokemon.xlsx
+++ b/output/XY_pokemon.xlsx
@@ -34424,8 +34424,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="30.89669421487604" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38212,6 +38213,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -38683,8 +38688,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="29.5" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -48205,8 +48211,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="27.5" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -52809,9 +52816,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -54208,9 +54216,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -55036,8 +55045,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="24.41735537190083" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -57227,8 +57237,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="46.5" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -62102,8 +62113,9 @@
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
     <col width="38.5" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -68615,9 +68627,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="3.5" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="49" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
